--- a/Моя робота/Потреба і забезпеченість пальним на марш.xlsx
+++ b/Моя робота/Потреба і забезпеченість пальним на марш.xlsx
@@ -464,6 +464,51 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -479,12 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -493,45 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,104 +854,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="25" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="s">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,9 +960,9 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
@@ -999,10 +999,10 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
@@ -1041,10 +1041,10 @@
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6">
         <v>1</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="8">
         <f>D10+D12</f>
         <v>1.1299999999999999</v>
@@ -1134,11 +1134,11 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="8">
         <v>0.6</v>
       </c>
@@ -1180,11 +1180,11 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1222,11 +1222,11 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8">
         <v>0.53</v>
       </c>
@@ -1271,10 +1271,10 @@
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="8">
         <v>0.1</v>
       </c>
@@ -1319,10 +1319,10 @@
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8">
         <v>2.1</v>
       </c>
@@ -1364,11 +1364,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="8">
         <v>1.4</v>
       </c>
@@ -1410,11 +1410,11 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="8">
         <v>0.15</v>
       </c>
@@ -1456,11 +1456,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="8">
         <f>D14-D15-D16</f>
         <v>0.55000000000000016</v>
@@ -1509,10 +1509,10 @@
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="8">
         <v>2.1</v>
       </c>
@@ -1556,11 +1556,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="8">
         <v>1.56</v>
       </c>
@@ -1602,11 +1602,11 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="8">
         <v>0.15</v>
       </c>
@@ -1648,11 +1648,11 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="8">
         <f>D18-D19-D20</f>
         <v>0.39</v>
@@ -1699,10 +1699,10 @@
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="12" t="s">
         <v>31</v>
       </c>
@@ -1743,10 +1743,10 @@
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="8">
         <v>0.5</v>
       </c>
@@ -1766,11 +1766,11 @@
         <v>5.5620000000000003</v>
       </c>
       <c r="I23" s="8">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="J23" s="8">
         <f>I23*J8</f>
-        <v>73.963999999999999</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="K23" s="8">
         <v>0.96</v>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="M23" s="8">
         <f>J23+L23</f>
-        <v>96.730400000000003</v>
+        <v>103.94640000000001</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1791,10 +1791,10 @@
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1834,10 +1834,10 @@
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="8">
         <f>D18-D23</f>
         <v>1.6</v>
@@ -1857,11 +1857,11 @@
       </c>
       <c r="I25" s="8">
         <f>J25/J8</f>
-        <v>2.5053569844789356</v>
+        <v>2.4253569844789356</v>
       </c>
       <c r="J25" s="8">
         <f>J18-J23+J24</f>
-        <v>225.98320000000001</v>
+        <v>218.7672</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>31</v>
@@ -1880,10 +1880,10 @@
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="8">
         <v>1.45</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="8">
         <f>D26-D25</f>
         <v>-0.15000000000000013</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I27" s="8">
         <f>I26-I25</f>
-        <v>-0.30535698447893544</v>
+        <v>-0.22535698447893537</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -2037,19 +2037,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -2066,6 +2053,19 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
